--- a/Infrastructures/Infrastructure.SeedData/Data/Inbody.xlsx
+++ b/Infrastructures/Infrastructure.SeedData/Data/Inbody.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\source\repos\Gym\Infrastructures\Infrastructure.SeedData\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Study\Gym\gym\Infrastructures\Infrastructure.SeedData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB42117-932C-4AA1-9F1F-8AF331122E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A0A9F-C736-45FD-9416-34D43435593C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5680D366-16F3-4700-B2EE-9AF7CD96B4D2}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="K6" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="2">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Infrastructures/Infrastructure.SeedData/Data/Inbody.xlsx
+++ b/Infrastructures/Infrastructure.SeedData/Data/Inbody.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Study\Gym\gym\Infrastructures\Infrastructure.SeedData\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\source\repos\Gym\Infrastructures\Infrastructure.SeedData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A0A9F-C736-45FD-9416-34D43435593C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD9FFC1-7B96-4EB2-9150-5767A77E023F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5680D366-16F3-4700-B2EE-9AF7CD96B4D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestedDate</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>UserId</t>
+  </si>
+  <si>
+    <t>StandardId</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30265E25-9B57-487F-9E99-2A0A9A0BBA89}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,9 +439,10 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +476,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43813</v>
       </c>
@@ -507,8 +514,11 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43826</v>
       </c>
@@ -542,8 +552,11 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43483</v>
       </c>
@@ -577,8 +590,11 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43875.4</v>
       </c>
@@ -612,8 +628,11 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44027</v>
       </c>
@@ -647,8 +666,11 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44034</v>
       </c>
@@ -682,8 +704,11 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44039</v>
       </c>
@@ -717,8 +742,11 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44020</v>
       </c>
@@ -750,6 +778,9 @@
         <v>11</v>
       </c>
       <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
         <v>1</v>
       </c>
     </row>
